--- a/biology/Botanique/Anabaena/Anabaena.xlsx
+++ b/biology/Botanique/Anabaena/Anabaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anabaena est un genre de cyanobactéries filamenteuses (anciennement appelées algues bleues) de la famille des Nostocaceae, que l'on trouve dans le plancton.
 </t>
@@ -511,9 +523,11 @@
           <t>Écologie, biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces cyanobactéries sont connues pour leur capacité à fixer l'azote, et elles forment une relation de symbiose avec certaines plantes, telles les fougères aquatiques (du genre Azolla). Pour cette raison ce sont des organismes de laboratoires qui ont été utilisés pour étudier la capacité de certains polluants (pétroliers notamment[1]) à inhiber la fixation de l'azote (ou d'ailleurs d'autres gaz)[1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces cyanobactéries sont connues pour leur capacité à fixer l'azote, et elles forment une relation de symbiose avec certaines plantes, telles les fougères aquatiques (du genre Azolla). Pour cette raison ce sont des organismes de laboratoires qui ont été utilisés pour étudier la capacité de certains polluants (pétroliers notamment) à inhiber la fixation de l'azote (ou d'ailleurs d'autres gaz),
 C'est l'un des quatre genres de cyanobactéries produisant des neurotoxines qui peuvent dans certaines conditions s'avérer dangereuses tant pour la vie sauvage ou pour les animaux d'élevage et les animaux de compagnie.
 </t>
         </is>
@@ -543,11 +557,13 @@
           <t>Identification, taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1999, un projet de séquençage ADN a été mené, et a permis de décoder le génome complet d'Anabaena, qui est constitué de 7,2 millions de paires de bases. L'étude s'est concentrée sur les hétérocystes, qui transforment l'azote en ammoniaque. Certaines espèces d'Anabaena ont été utilisées dans des rizières, prouvant qu'elles constituent un engrais naturel efficace.
-Leur identification, comme celle des cyanobactéries en général[3], relève de spécialistes. La réaction en chaîne par polymérase (PCR) commence à pouvoir être utilisée pour identifier les espèces par leur ADN[4].
-Sur la base de premières analyses phylogénétiques (basées sur l'étude de l'ARN)[5], il existe des formes stables correspondant à chaque cluster phylogénétique (ex : longueur et largeur des akinètes qui pourraient être utiles pour classer les différentes souches d'Anabaena/Aphanizomenon), les analyses ARN montrant que la classification des anabaenoidés doit être révisée.
+Leur identification, comme celle des cyanobactéries en général, relève de spécialistes. La réaction en chaîne par polymérase (PCR) commence à pouvoir être utilisée pour identifier les espèces par leur ADN.
+Sur la base de premières analyses phylogénétiques (basées sur l'étude de l'ARN), il existe des formes stables correspondant à chaque cluster phylogénétique (ex : longueur et largeur des akinètes qui pourraient être utiles pour classer les différentes souches d'Anabaena/Aphanizomenon), les analyses ARN montrant que la classification des anabaenoidés doit être révisée.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines classifications[6],[7] préfèrent appeler ce genre Romanoa, cependant Anabaena demeure utilisé par la plupart des bases de données de référence, comme AlgaeBase[8]. 
-Selon World Register of Marine Species                               (18 février 2016)[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines classifications, préfèrent appeler ce genre Romanoa, cependant Anabaena demeure utilisé par la plupart des bases de données de référence, comme AlgaeBase. 
+Selon World Register of Marine Species                               (18 février 2016) :
 Anabaena abnormis Proskina-Lavrenko &amp; Makarova, 1968
 Anabaena aequalis Borge, 1906
 Anabaena aerophila Brabez, 1941
@@ -593,7 +611,7 @@
 Anabaena augstumnalis Schmidle, 1900
 Anabaena australica Playfair, 1918
 Anabaena austro-africana Cronberg &amp; Komárek, 2004
-Anabaena azollae Strasburger, 1884[10]
+Anabaena azollae Strasburger, 1884
 Anabaena azotica Ley, 1959
 Anabaena baltica E.J.Schmidt, 1899
 Anabaena batophora Frémy, 1930
